--- a/Data/Covid19_07.02.2021.xlsx
+++ b/Data/Covid19_07.02.2021.xlsx
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>9142</v>
+        <v>9145</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1712</v>
+        <v>1714</v>
       </c>
     </row>
   </sheetData>
